--- a/output/ValueSet-mood-vs.xlsx
+++ b/output/ValueSet-mood-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T10:45:41+00:00</t>
+    <t>2024-12-26T11:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-mood-vs.xlsx
+++ b/output/ValueSet-mood-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T11:41:10+00:00</t>
+    <t>2024-12-27T22:28:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-mood-vs.xlsx
+++ b/output/ValueSet-mood-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
